--- a/Database/Cornestean/Saptamana 28.xlsx
+++ b/Database/Cornestean/Saptamana 28.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai\Desktop\Repository Practica\Practica_covid19_UTCN\Database\Cornestean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F29FC0-D524-40C9-BF9A-B64ABFEEE85C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C194C5-889A-497A-80B1-3464AF6BDA91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{307073A5-D9BB-446E-86AB-D948D2119291}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{307073A5-D9BB-446E-86AB-D948D2119291}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>Total</t>
   </si>
@@ -186,6 +187,72 @@
   </si>
   <si>
     <t>Saptamana 13-19 iulie</t>
+  </si>
+  <si>
+    <t>Caracteristicile cazurilor confirmate si a deceselor</t>
+  </si>
+  <si>
+    <t>Cazuri</t>
+  </si>
+  <si>
+    <t>Varsta,mediana(range)</t>
+  </si>
+  <si>
+    <t>Sex,masculin</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Vindecati</t>
+  </si>
+  <si>
+    <t>Personal sanitar</t>
+  </si>
+  <si>
+    <t>Afectiuni cardiovasculare</t>
+  </si>
+  <si>
+    <t>Diabet</t>
+  </si>
+  <si>
+    <t>Afectiuni neurologice</t>
+  </si>
+  <si>
+    <t>Afectiuni renale</t>
+  </si>
+  <si>
+    <t>Obezitate</t>
+  </si>
+  <si>
+    <t>Afectiuni Pulmonare</t>
+  </si>
+  <si>
+    <t>Neoplasm</t>
+  </si>
+  <si>
+    <t>Altele</t>
+  </si>
+  <si>
+    <t>Numar</t>
+  </si>
+  <si>
+    <t>Procentaj</t>
+  </si>
+  <si>
+    <t>49(0-99)</t>
+  </si>
+  <si>
+    <t>69(20-99)</t>
+  </si>
+  <si>
+    <t>94% din decese aveau comorbiditati asociate</t>
+  </si>
+  <si>
+    <t>78.5% din decese au fost la persoane de peste 60 ani</t>
+  </si>
+  <si>
+    <t>59% din decese au fost la barbati</t>
   </si>
 </sst>
 </file>
@@ -544,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0905CF-53BF-4DDA-9185-84B6CF877A96}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,914 +623,942 @@
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="3"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="H2" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>574</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>29</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>78</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="H3" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>788</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>77</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>69</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="H4" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>2079</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>89</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>689</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>920</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>69</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>163</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>723</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>24</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>12</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>704</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>59</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>71</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>1104</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>82</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>28</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>2381</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>367</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>401</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>11</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>98</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>992</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>27</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>168</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>145</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>9</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>17</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>237</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>28</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>891</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>26</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>120</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>645</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>26</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>103</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>369</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>9</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>38</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>1194</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>43</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>229</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>458</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>15</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>67</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>1626</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>113</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>357</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>328</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>7</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>45</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>550</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>14</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>121</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>424</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>13</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>41</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>766</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>73</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>55</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>592</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>30</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>55</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>1139</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>56</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>64</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>1012</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>37</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>113</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>278</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>14</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>41</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>337</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>24</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>67</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>866</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>73</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>48</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>1059</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>61</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>55</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>505</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>19</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>120</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>1126</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>52</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>313</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>84</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>8</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>2</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>127</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>16</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>6</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>770</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>59</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>68</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>4268</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>302</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>91</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>218</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>15</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>27</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>786</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>65</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>179</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>230</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>13</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>25</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>340</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>22</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>108</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>219</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>10</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <v>101</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>1378</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>77</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>131</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>4467</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>160</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>611</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>39</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3">
+      <c r="D45" s="2"/>
+      <c r="E45" s="2">
         <v>2</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3" t="s">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>38139</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <v>2038</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="E46" s="2">
+        <v>5191</v>
+      </c>
+      <c r="F46" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1472,4 +1567,244 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50065395-E2E2-4660-9FB9-F7DC400B3C45}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="2">
+        <v>17294</v>
+      </c>
+      <c r="D5" s="2">
+        <v>868</v>
+      </c>
+      <c r="E5" s="2">
+        <v>25213</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3567</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1203</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1357</v>
+      </c>
+      <c r="J5" s="2">
+        <v>640</v>
+      </c>
+      <c r="K5" s="2">
+        <v>463</v>
+      </c>
+      <c r="L5" s="2">
+        <v>405</v>
+      </c>
+      <c r="M5" s="2">
+        <v>365</v>
+      </c>
+      <c r="N5" s="2">
+        <v>356</v>
+      </c>
+      <c r="O5" s="2">
+        <v>243</v>
+      </c>
+      <c r="P5" s="2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
+        <v>45.3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E6" s="2">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="F6" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <v>59</v>
+      </c>
+      <c r="I6" s="2">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="J6" s="2">
+        <v>31.4</v>
+      </c>
+      <c r="K6" s="2">
+        <v>22.7</v>
+      </c>
+      <c r="L6" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="M6" s="2">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="N6" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="O6" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="P6" s="2">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:P3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>